--- a/output/StructureDefinition-eicr-anon-org-name-addr-tele.xlsx
+++ b/output/StructureDefinition-eicr-anon-org-name-addr-tele.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-org-name-addr-tele.xlsx
+++ b/output/StructureDefinition-eicr-anon-org-name-addr-tele.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-org-name-addr-tele.xlsx
+++ b/output/StructureDefinition-eicr-anon-org-name-addr-tele.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
